--- a/src/test/java/files/datademo.xlsx
+++ b/src/test/java/files/datademo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/src/test/java/files/datademo.xlsx
+++ b/src/test/java/files/datademo.xlsx
@@ -61,9 +61,6 @@
     <t>ccc</t>
   </si>
   <si>
-    <t>ddd</t>
-  </si>
-  <si>
     <t>eee</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>ooo</t>
+  </si>
+  <si>
+    <t>fvfvf</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,13 +447,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,13 +461,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,17 +475,18 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/java/files/datademo.xlsx
+++ b/src/test/java/files/datademo.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
-    <sheet name="sample" sheetId="2" r:id="rId2"/>
+    <sheet name="RestAssured" sheetId="2" r:id="rId2"/>
     <sheet name="demo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Testcases</t>
   </si>
@@ -86,6 +86,33 @@
   </si>
   <si>
     <t>fvfvf</t>
+  </si>
+  <si>
+    <t>RestAddBook</t>
+  </si>
+  <si>
+    <t>RestAssured</t>
+  </si>
+  <si>
+    <t>swsws</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>aisle</t>
+  </si>
+  <si>
+    <t>author</t>
   </si>
 </sst>
 </file>
@@ -403,18 +430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +455,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -442,7 +473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -456,7 +487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -470,7 +501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -482,6 +513,23 @@
       </c>
       <c r="D5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>322</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -492,12 +540,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>623</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
